--- a/黄山旅游08-18.xlsx
+++ b/黄山旅游08-18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marsxinwang/PycharmProjects/stackDataDeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D065D6DC-0162-4649-8CAC-5ECE214B149D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5081C1A0-A8BC-A643-ACE9-D2C6663813F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4160" yWindow="-28300" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4840" yWindow="-28300" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="利润表,资产负债表,现金流量表" sheetId="1" r:id="rId1"/>
@@ -1676,11 +1676,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O369"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -18111,7 +18111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A2:A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
@@ -18221,7 +18223,7 @@
         <v>0.39</v>
       </c>
       <c r="W2" s="12">
-        <v>0</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="X2" s="12">
         <v>0.21</v>
@@ -18259,7 +18261,7 @@
         <v>0.47</v>
       </c>
       <c r="W3" s="12">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="X3" s="12">
         <v>0.52</v>
@@ -18297,7 +18299,7 @@
         <v>0.42</v>
       </c>
       <c r="W4" s="12">
-        <v>0</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="X4" s="12">
         <v>1.98</v>
@@ -18335,7 +18337,7 @@
         <v>0.48</v>
       </c>
       <c r="W5" s="12">
-        <v>0</v>
+        <v>9.18</v>
       </c>
       <c r="X5" s="12">
         <v>6.15</v>
@@ -18373,7 +18375,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="W6" s="12">
-        <v>0</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="X6" s="12">
         <v>1.32</v>
@@ -18420,7 +18422,7 @@
         <v>0.38</v>
       </c>
       <c r="W7" s="12">
-        <v>0</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="X7" s="12">
         <v>0.19</v>
@@ -18467,7 +18469,7 @@
         <v>0.42</v>
       </c>
       <c r="W8" s="12">
-        <v>0</v>
+        <v>18.63</v>
       </c>
       <c r="X8" s="12">
         <v>1.18</v>
@@ -18547,7 +18549,7 @@
         <v>0.52</v>
       </c>
       <c r="W9" s="12">
-        <v>0</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="X9" s="12">
         <v>0.06</v>
@@ -18627,7 +18629,7 @@
         <v>0.39</v>
       </c>
       <c r="W10" s="12">
-        <v>0</v>
+        <v>17.54</v>
       </c>
       <c r="X10" s="12">
         <v>0.11</v>
@@ -18707,7 +18709,7 @@
         <v>0.62</v>
       </c>
       <c r="W11" s="12">
-        <v>0</v>
+        <v>16.89</v>
       </c>
       <c r="X11" s="12">
         <v>0.24</v>
@@ -18787,7 +18789,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="W12" s="12">
-        <v>0</v>
+        <v>16.43</v>
       </c>
       <c r="X12" s="12">
         <v>0.4</v>
